--- a/data/trans_dic/P19C09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01811606833697231</v>
+        <v>0.01769895164313129</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008563115312339361</v>
+        <v>0.008334089934174234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01947186202575548</v>
+        <v>0.01959165462311586</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02781309122136407</v>
+        <v>0.02745624359616954</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.009696909977103634</v>
+        <v>0.009650690774573397</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0109841754581636</v>
+        <v>0.0108416980269022</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02603559972884732</v>
+        <v>0.02595630501355108</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01139653523259811</v>
+        <v>0.01119706601934116</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01803065169688779</v>
+        <v>0.01858908891754805</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0467054209621205</v>
+        <v>0.04780344313055125</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03193502522793214</v>
+        <v>0.03090586297990042</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05209450086027778</v>
+        <v>0.0517121035516422</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06111719971038058</v>
+        <v>0.06099444142162144</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03199191285964282</v>
+        <v>0.03369051416850812</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03814987839870384</v>
+        <v>0.03727639767768315</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04983161694363578</v>
+        <v>0.04792009872848209</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02742629498668947</v>
+        <v>0.02730181334456145</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03848926439074705</v>
+        <v>0.03844951827476086</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01350979608928495</v>
+        <v>0.01419701276837738</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00831320580868484</v>
+        <v>0.007481516243038221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01622063024560489</v>
+        <v>0.01629209250189839</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02297327934682941</v>
+        <v>0.02299832437146584</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01880335079372026</v>
+        <v>0.01835502558070186</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02141110683596172</v>
+        <v>0.02219055080108724</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02135588039777985</v>
+        <v>0.02129443098000858</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01516464355941362</v>
+        <v>0.01545122385945474</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02200129669151874</v>
+        <v>0.02216278723954367</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03760700939974201</v>
+        <v>0.03711904056811363</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02452423285088412</v>
+        <v>0.02428695415320327</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03912665567643128</v>
+        <v>0.03808327780436353</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04709385950442303</v>
+        <v>0.04778236005138812</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04284738097881135</v>
+        <v>0.0434324711309549</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04588552276394348</v>
+        <v>0.04676486423806574</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0390611763902582</v>
+        <v>0.03911674984487419</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03088720613680025</v>
+        <v>0.03114222784836971</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0390196072011906</v>
+        <v>0.03851056215112831</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01441584416026691</v>
+        <v>0.01398056729854741</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006451005155634534</v>
+        <v>0.006518091122105318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0155588369487817</v>
+        <v>0.01479599617679278</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01439127648468495</v>
+        <v>0.01442980170079126</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01416384662389981</v>
+        <v>0.0153241990536037</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005485540334695722</v>
+        <v>0.005240323059650566</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01752681448316566</v>
+        <v>0.0173411275789165</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01268934088542372</v>
+        <v>0.0133980566531975</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01276526364186612</v>
+        <v>0.01294266733912273</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04376001955849512</v>
+        <v>0.04493024132406462</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02872027306235255</v>
+        <v>0.02862226993411681</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04604971256143377</v>
+        <v>0.0446889270765374</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04069747540322677</v>
+        <v>0.040207656885403</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04092409468088782</v>
+        <v>0.04083677338598501</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02547878346808061</v>
+        <v>0.02291896352024146</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03752191046942788</v>
+        <v>0.03628330900249217</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02914299950697102</v>
+        <v>0.03155587903371946</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03021364603303829</v>
+        <v>0.02945239717247946</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01591770412395594</v>
+        <v>0.01682280186788536</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01352169975743366</v>
+        <v>0.01232209720232734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01814677312115909</v>
+        <v>0.01733197646238228</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.016724547824217</v>
+        <v>0.01753543931178226</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0236405111886377</v>
+        <v>0.02456001948816637</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02197124900755256</v>
+        <v>0.02169896470237019</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01908279387344552</v>
+        <v>0.01862456442227557</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02158884315089244</v>
+        <v>0.02167963545143125</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02336942436197124</v>
+        <v>0.02295898303573844</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04031522180973986</v>
+        <v>0.04099651497428116</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03670209930001361</v>
+        <v>0.03691566910827674</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04447445957311543</v>
+        <v>0.0435295857324773</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04061478850441595</v>
+        <v>0.04143624302914294</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0506694358253653</v>
+        <v>0.0508886986189855</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04936730568873408</v>
+        <v>0.04817699214720927</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03618595548801352</v>
+        <v>0.03632970488217925</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03871427999362451</v>
+        <v>0.04022872244075764</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04054733717326292</v>
+        <v>0.04054834703674421</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02032472880889192</v>
+        <v>0.01984794446507648</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01248727803276262</v>
+        <v>0.01248860075836421</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02250323392969885</v>
+        <v>0.02298264144565058</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02568272201931696</v>
+        <v>0.02525257214440569</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02247442753982996</v>
+        <v>0.02274187612293413</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02140197880839943</v>
+        <v>0.02114724741871473</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02484214043558011</v>
+        <v>0.02463157344782127</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01891296821270371</v>
+        <v>0.01889018062068277</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02360114880291445</v>
+        <v>0.02312604178608835</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03301234151462525</v>
+        <v>0.03343610597349272</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02274304831822391</v>
+        <v>0.0225642179642446</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03598608752734221</v>
+        <v>0.03623298584949804</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0391889274398797</v>
+        <v>0.03849339884572671</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03540532009956969</v>
+        <v>0.03500640521527052</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03333207058713388</v>
+        <v>0.03344187071669875</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03430749489290458</v>
+        <v>0.03396449384356837</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02693804400646162</v>
+        <v>0.02757179325241267</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03273421229694996</v>
+        <v>0.03247283202153808</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8657</v>
+        <v>8457</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5071</v>
+        <v>4935</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10223</v>
+        <v>10285</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14966</v>
+        <v>14774</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6076</v>
+        <v>6047</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5979</v>
+        <v>5902</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>26451</v>
+        <v>26370</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13890</v>
+        <v>13647</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19281</v>
+        <v>19878</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22318</v>
+        <v>22842</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18912</v>
+        <v>18302</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27349</v>
+        <v>27148</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>32887</v>
+        <v>32821</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20046</v>
+        <v>21110</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20767</v>
+        <v>20292</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>50626</v>
+        <v>48684</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>33427</v>
+        <v>33275</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>41159</v>
+        <v>41116</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9756</v>
+        <v>10252</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7021</v>
+        <v>6319</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13242</v>
+        <v>13300</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>18476</v>
+        <v>18496</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>16661</v>
+        <v>16264</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18550</v>
+        <v>19225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>32597</v>
+        <v>32503</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>26245</v>
+        <v>26740</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>37022</v>
+        <v>37294</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27157</v>
+        <v>26805</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20713</v>
+        <v>20512</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31941</v>
+        <v>31089</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>37874</v>
+        <v>38428</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37965</v>
+        <v>38483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39754</v>
+        <v>40516</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>59621</v>
+        <v>59706</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>53455</v>
+        <v>53896</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>65659</v>
+        <v>64802</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7843</v>
+        <v>7606</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4043</v>
+        <v>4085</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8563</v>
+        <v>8143</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8413</v>
+        <v>8436</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9316</v>
+        <v>10080</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3180</v>
+        <v>3038</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19782</v>
+        <v>19572</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16300</v>
+        <v>17210</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>14426</v>
+        <v>14626</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23808</v>
+        <v>24444</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18001</v>
+        <v>17940</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25344</v>
+        <v>24595</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23792</v>
+        <v>23506</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26918</v>
+        <v>26861</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14771</v>
+        <v>13287</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>42349</v>
+        <v>40951</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>37435</v>
+        <v>40535</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>34144</v>
+        <v>33284</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11245</v>
+        <v>11885</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10454</v>
+        <v>9527</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14021</v>
+        <v>13391</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13552</v>
+        <v>14209</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>21271</v>
+        <v>22099</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19265</v>
+        <v>19027</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>28945</v>
+        <v>28250</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36117</v>
+        <v>36269</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>38547</v>
+        <v>37870</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>28482</v>
+        <v>28963</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28377</v>
+        <v>28542</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>34363</v>
+        <v>33632</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32911</v>
+        <v>33576</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>45591</v>
+        <v>45788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>43287</v>
+        <v>42244</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>54887</v>
+        <v>55105</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>64767</v>
+        <v>67300</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>66882</v>
+        <v>66884</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>49806</v>
+        <v>48637</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>35423</v>
+        <v>35427</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>59956</v>
+        <v>61233</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>70300</v>
+        <v>69123</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>69001</v>
+        <v>69822</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>61366</v>
+        <v>60636</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>128875</v>
+        <v>127782</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>111717</v>
+        <v>111582</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>130553</v>
+        <v>127925</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>80896</v>
+        <v>81935</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>64516</v>
+        <v>64008</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>95879</v>
+        <v>96537</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>107270</v>
+        <v>105366</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>108701</v>
+        <v>107476</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>95574</v>
+        <v>95888</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>177979</v>
+        <v>176199</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>159120</v>
+        <v>162864</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>181074</v>
+        <v>179628</v>
       </c>
     </row>
     <row r="24">
